--- a/NRI_STLF_Data/flag/flag95.xlsx
+++ b/NRI_STLF_Data/flag/flag95.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\karami\LoadForecasting\STLF\NRI_STLF_Data\flag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\karami\temporary\New Folder\Works2\flag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="8055" windowHeight="11460"/>
+    <workbookView xWindow="300" yWindow="0" windowWidth="8052" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -397,13 +397,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F242" sqref="F242:F366"/>
+    <sheetView tabSelected="1" topLeftCell="A336" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F248" sqref="F248:F366"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>95</v>
       </c>
@@ -446,7 +446,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>95</v>
       </c>
@@ -489,7 +489,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>95</v>
       </c>
@@ -532,7 +532,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>95</v>
       </c>
@@ -575,7 +575,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>95</v>
       </c>
@@ -618,7 +618,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>95</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>95</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>95</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>95</v>
       </c>
@@ -790,7 +790,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>95</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>95</v>
       </c>
@@ -876,7 +876,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>95</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>95</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1005,7 +1005,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1048,7 +1048,7 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>95</v>
       </c>
@@ -1177,7 +1177,7 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>95</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>95</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>95</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>95</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>95</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>95</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>95</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>95</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>95</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>95</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>95</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>95</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>95</v>
       </c>
@@ -1736,7 +1736,7 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>95</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>95</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>95</v>
       </c>
@@ -1865,7 +1865,7 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>95</v>
       </c>
@@ -1908,7 +1908,7 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>95</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>95</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>95</v>
       </c>
@@ -2037,7 +2037,7 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>95</v>
       </c>
@@ -2080,7 +2080,7 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>95</v>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>95</v>
       </c>
@@ -2166,7 +2166,7 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>95</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>95</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>95</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>95</v>
       </c>
@@ -2338,7 +2338,7 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>95</v>
       </c>
@@ -2381,7 +2381,7 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>95</v>
       </c>
@@ -2424,7 +2424,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>95</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>95</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>95</v>
       </c>
@@ -2553,7 +2553,7 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>95</v>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>95</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>95</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>95</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>95</v>
       </c>
@@ -2768,7 +2768,7 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>95</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>95</v>
       </c>
@@ -2854,7 +2854,7 @@
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>95</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>95</v>
       </c>
@@ -2940,7 +2940,7 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>95</v>
       </c>
@@ -2983,7 +2983,7 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>95</v>
       </c>
@@ -3026,7 +3026,7 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>95</v>
       </c>
@@ -3069,7 +3069,7 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>95</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>95</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>95</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>95</v>
       </c>
@@ -3241,7 +3241,7 @@
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>95</v>
       </c>
@@ -3284,7 +3284,7 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>95</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>95</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>95</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>95</v>
       </c>
@@ -3456,7 +3456,7 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>95</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>95</v>
       </c>
@@ -3542,7 +3542,7 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>95</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>95</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>95</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>95</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>95</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>95</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>95</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>95</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>95</v>
       </c>
@@ -3929,7 +3929,7 @@
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>95</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>95</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>95</v>
       </c>
@@ -4058,7 +4058,7 @@
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>95</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>95</v>
       </c>
@@ -4144,7 +4144,7 @@
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>95</v>
       </c>
@@ -4187,7 +4187,7 @@
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>95</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>95</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>95</v>
       </c>
@@ -4316,7 +4316,7 @@
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>95</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>95</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>95</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4531,7 +4531,7 @@
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4574,7 +4574,7 @@
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95</v>
       </c>
@@ -4617,7 +4617,7 @@
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>95</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>95</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>95</v>
       </c>
@@ -4746,7 +4746,7 @@
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>95</v>
       </c>
@@ -4789,7 +4789,7 @@
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>95</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>95</v>
       </c>
@@ -4875,7 +4875,7 @@
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>95</v>
       </c>
@@ -4918,7 +4918,7 @@
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>95</v>
       </c>
@@ -4961,7 +4961,7 @@
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>95</v>
       </c>
@@ -5004,7 +5004,7 @@
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>95</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>95</v>
       </c>
@@ -5090,7 +5090,7 @@
       <c r="AB109" s="1"/>
       <c r="AC109" s="1"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>95</v>
       </c>
@@ -5133,7 +5133,7 @@
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>95</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -5219,7 +5219,7 @@
       <c r="AB112" s="2"/>
       <c r="AC112" s="2"/>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>95</v>
       </c>
@@ -5262,7 +5262,7 @@
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>95</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>95</v>
       </c>
@@ -5348,7 +5348,7 @@
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>95</v>
       </c>
@@ -5391,7 +5391,7 @@
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>95</v>
       </c>
@@ -5434,7 +5434,7 @@
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>95</v>
       </c>
@@ -5477,7 +5477,7 @@
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>95</v>
       </c>
@@ -5520,7 +5520,7 @@
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>95</v>
       </c>
@@ -5563,7 +5563,7 @@
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>95</v>
       </c>
@@ -5606,7 +5606,7 @@
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>95</v>
       </c>
@@ -5649,7 +5649,7 @@
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>95</v>
       </c>
@@ -5692,7 +5692,7 @@
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>95</v>
       </c>
@@ -5735,7 +5735,7 @@
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>95</v>
       </c>
@@ -5778,7 +5778,7 @@
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>95</v>
       </c>
@@ -5821,7 +5821,7 @@
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>95</v>
       </c>
@@ -5864,7 +5864,7 @@
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>95</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>95</v>
       </c>
@@ -5950,7 +5950,7 @@
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>95</v>
       </c>
@@ -5993,7 +5993,7 @@
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>95</v>
       </c>
@@ -6036,7 +6036,7 @@
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>95</v>
       </c>
@@ -6079,7 +6079,7 @@
       <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>95</v>
       </c>
@@ -6122,7 +6122,7 @@
       <c r="AB133" s="1"/>
       <c r="AC133" s="1"/>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>95</v>
       </c>
@@ -6165,7 +6165,7 @@
       <c r="AB134" s="2"/>
       <c r="AC134" s="2"/>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>95</v>
       </c>
@@ -6208,7 +6208,7 @@
       <c r="AB135" s="2"/>
       <c r="AC135" s="2"/>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>95</v>
       </c>
@@ -6251,7 +6251,7 @@
       <c r="AB136" s="2"/>
       <c r="AC136" s="2"/>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>95</v>
       </c>
@@ -6294,7 +6294,7 @@
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>95</v>
       </c>
@@ -6337,7 +6337,7 @@
       <c r="AB138" s="2"/>
       <c r="AC138" s="2"/>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>95</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="AB139" s="2"/>
       <c r="AC139" s="2"/>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>95</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="AB140" s="2"/>
       <c r="AC140" s="2"/>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>95</v>
       </c>
@@ -6466,7 +6466,7 @@
       <c r="AB141" s="2"/>
       <c r="AC141" s="2"/>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>95</v>
       </c>
@@ -6509,7 +6509,7 @@
       <c r="AB142" s="2"/>
       <c r="AC142" s="2"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>95</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="AB143" s="2"/>
       <c r="AC143" s="2"/>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>95</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="AB144" s="2"/>
       <c r="AC144" s="2"/>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>95</v>
       </c>
@@ -6638,7 +6638,7 @@
       <c r="AB145" s="2"/>
       <c r="AC145" s="2"/>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>95</v>
       </c>
@@ -6681,7 +6681,7 @@
       <c r="AB146" s="2"/>
       <c r="AC146" s="2"/>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>95</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="AB147" s="2"/>
       <c r="AC147" s="2"/>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>95</v>
       </c>
@@ -6767,7 +6767,7 @@
       <c r="AB148" s="2"/>
       <c r="AC148" s="2"/>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>95</v>
       </c>
@@ -6810,7 +6810,7 @@
       <c r="AB149" s="2"/>
       <c r="AC149" s="2"/>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>95</v>
       </c>
@@ -6853,7 +6853,7 @@
       <c r="AB150" s="2"/>
       <c r="AC150" s="2"/>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>95</v>
       </c>
@@ -6896,7 +6896,7 @@
       <c r="AB151" s="2"/>
       <c r="AC151" s="2"/>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>95</v>
       </c>
@@ -6939,7 +6939,7 @@
       <c r="AB152" s="2"/>
       <c r="AC152" s="2"/>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>95</v>
       </c>
@@ -6982,7 +6982,7 @@
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>95</v>
       </c>
@@ -7025,7 +7025,7 @@
       <c r="AB154" s="2"/>
       <c r="AC154" s="2"/>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>95</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="AB155" s="2"/>
       <c r="AC155" s="2"/>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>95</v>
       </c>
@@ -7111,7 +7111,7 @@
       <c r="AB156" s="2"/>
       <c r="AC156" s="2"/>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>95</v>
       </c>
@@ -7154,7 +7154,7 @@
       <c r="AB157" s="2"/>
       <c r="AC157" s="2"/>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>95</v>
       </c>
@@ -7197,7 +7197,7 @@
       <c r="AB158" s="2"/>
       <c r="AC158" s="2"/>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>95</v>
       </c>
@@ -7240,7 +7240,7 @@
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>95</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>95</v>
       </c>
@@ -7326,7 +7326,7 @@
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>95</v>
       </c>
@@ -7369,7 +7369,7 @@
       <c r="AB162" s="2"/>
       <c r="AC162" s="2"/>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>95</v>
       </c>
@@ -7412,7 +7412,7 @@
       <c r="AB163" s="2"/>
       <c r="AC163" s="2"/>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>95</v>
       </c>
@@ -7455,7 +7455,7 @@
       <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>95</v>
       </c>
@@ -7498,7 +7498,7 @@
       <c r="AB165" s="2"/>
       <c r="AC165" s="2"/>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>95</v>
       </c>
@@ -7541,7 +7541,7 @@
       <c r="AB166" s="2"/>
       <c r="AC166" s="2"/>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>95</v>
       </c>
@@ -7584,7 +7584,7 @@
       <c r="AB167" s="2"/>
       <c r="AC167" s="2"/>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>95</v>
       </c>
@@ -7627,7 +7627,7 @@
       <c r="AB168" s="2"/>
       <c r="AC168" s="2"/>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>95</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>95</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>95</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>95</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>95</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>95</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>95</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>95</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>95</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>95</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>95</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>95</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>95</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>95</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>95</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>95</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>95</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>95</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>95</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>95</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>95</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>95</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>95</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>95</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>95</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>95</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>95</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>95</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>95</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>95</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>95</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>95</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>95</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>95</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>95</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>95</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>95</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>95</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>95</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>95</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>95</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>95</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>95</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>95</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>95</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>95</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>95</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>95</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>95</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>95</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>95</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>95</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>95</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>95</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>95</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>95</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>95</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>95</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>95</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>95</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>95</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>95</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>95</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>95</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>95</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>95</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>95</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>95</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>95</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>95</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>95</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>95</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>95</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>95</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>95</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>95</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>95</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>95</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>95</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>95</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>95</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>95</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>95</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>95</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>95</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>95</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>95</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>95</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>95</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>95</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>95</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>95</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>95</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>95</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>95</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>95</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>95</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>95</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>95</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>95</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>95</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>95</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>95</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>95</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>95</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>95</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>95</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>95</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>95</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>95</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>95</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>95</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>95</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>95</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>95</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>95</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>95</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>95</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>95</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>95</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>95</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>95</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>95</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>95</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>95</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>95</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>95</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>95</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>95</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>95</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>95</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>95</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>95</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>95</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>95</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>95</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>95</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>95</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>95</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>95</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>95</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>95</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>95</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>95</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>95</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>95</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>95</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>95</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>95</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>95</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>95</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>95</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>95</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>95</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>95</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>95</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>95</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>95</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>95</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>95</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>95</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>95</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>95</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>95</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>95</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>95</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>95</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>95</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>95</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>95</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>95</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>95</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>95</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>95</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>95</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>95</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>95</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>95</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>95</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>95</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>95</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>95</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>95</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>95</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>95</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>95</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>95</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>95</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>95</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>95</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>95</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>95</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>95</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>95</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>95</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>95</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>95</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>95</v>
       </c>
@@ -11599,7 +11599,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11611,7 +11611,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
